--- a/python-pandas-time-series-demo-start.xlsx
+++ b/python-pandas-time-series-demo-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AF06D9-FA0D-46A9-ABEF-6FC32870B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D8A81-88F4-4891-B6D2-2EB4D8D9D7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{17C253B8-D268-4D86-A025-277E1F4C75F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{17C253B8-D268-4D86-A025-277E1F4C75F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,21 +116,8 @@
 </python>
 </file>
 
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code xml:space="preserve">pd.to_datetime(xl(%P2%))
-</code>
-  </pythonScript>
-  <pythonScript>
-    <code>dates = xl(%P2%, headers=True)
-dates['date'] = pd.to_datetime(dates['date'], errors='coerce')</code>
-  </pythonScript>
-</pythonScripts>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -251,37 +238,7 @@
     <t>8th sep, 2019</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>05th Feb, 2020</t>
-  </si>
-  <si>
-    <t>06th Jan, 2020</t>
-  </si>
-  <si>
-    <t>05th May, 2020</t>
-  </si>
-  <si>
-    <t>07th Nov, 2019</t>
-  </si>
-  <si>
-    <t>08th Oct, 2019</t>
-  </si>
-  <si>
-    <t>07th Dec, 2019</t>
-  </si>
-  <si>
-    <t>05th Apr, 2020</t>
-  </si>
-  <si>
-    <t>06th Mar, 2020</t>
-  </si>
-  <si>
-    <t>04th Jun, 2020</t>
-  </si>
-  <si>
-    <t>08th Sep, 2019</t>
   </si>
   <si>
     <t>Date and Time</t>
@@ -508,16 +465,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE0D06D2-CD0E-4096-83E2-0959139986B8}" name="Table2" displayName="Table2" ref="A3:A13" totalsRowShown="0">
-  <autoFilter ref="A3:A13" xr:uid="{DE0D06D2-CD0E-4096-83E2-0959139986B8}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8EBBD888-C971-4FB2-A94C-EC9E955B4704}" name="Date"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7587AD47-576D-4F4E-A1CC-62AE3374F63C}" name="Table1" displayName="Table1" ref="A3:B22" totalsRowShown="0">
   <autoFilter ref="A3:B22" xr:uid="{7587AD47-576D-4F4E-A1CC-62AE3374F63C}"/>
   <tableColumns count="2">
@@ -847,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B930B575-3353-4CE0-8F9A-B548598189BC}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -889,10 +836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E9861A-82C6-4C8A-A46A-2A325B12AE2A}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
@@ -903,73 +850,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" cm="1" vm="1">
         <f t="array" ref="B1">_xlfn._xlws.PY(0,1,A1)</f>
         <v>43866</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -985,57 +874,57 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
